--- a/data/trans_orig/OT3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{144299D9-BB50-47A1-934E-B82F068570D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D44DE38E-80DF-40E9-819E-94AA79A2F94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB823C21-0B53-42C4-AD88-5ADDBD95287C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19221B7F-0F52-475C-8E13-A698108A13D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -520,7 +520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F43DD6-93E6-41F2-9F6C-C245F2A1E2EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1224454-87E3-4D64-9523-AE0F6980879B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1500,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E29FB9A-E5BE-4C51-A172-35804D66EE38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE599DA-1687-413A-BDC5-BF3E08D5E61B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/OT3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D44DE38E-80DF-40E9-819E-94AA79A2F94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0179973-2823-424C-A967-3453C6231135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19221B7F-0F52-475C-8E13-A698108A13D1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C380B3BF-EFEA-4469-B43B-E04ACD73B544}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,7 +108,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 3 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población con diagnóstico de otra enfermedad 3 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1224454-87E3-4D64-9523-AE0F6980879B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3C0E50-896B-4CC9-AE96-F3128ABCBA81}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1500,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE599DA-1687-413A-BDC5-BF3E08D5E61B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23FA7E7-1D45-4B5E-9EC6-AAB55D17E4D5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/OT3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0179973-2823-424C-A967-3453C6231135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52D63C8E-B495-450F-8ACD-2100817724E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C380B3BF-EFEA-4469-B43B-E04ACD73B544}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41B1CA72-DBEF-40AD-A0D7-FE30784232D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -520,7 +520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3C0E50-896B-4CC9-AE96-F3128ABCBA81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2833A394-ACD3-4A3C-839A-06EFF9EF369E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1500,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23FA7E7-1D45-4B5E-9EC6-AAB55D17E4D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44C358E-6040-4EE8-9434-18C1488D0DD6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/OT3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52D63C8E-B495-450F-8ACD-2100817724E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54FEA938-D581-47C9-9354-06B4FB08D4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41B1CA72-DBEF-40AD-A0D7-FE30784232D2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{509CCD42-E763-4321-A133-17DEE8FDC61F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -72,6 +72,15 @@
     <t>Otros</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>—%</t>
   </si>
   <si>
@@ -82,15 +91,6 @@
   </si>
   <si>
     <t>Granada</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -520,7 +520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2833A394-ACD3-4A3C-839A-06EFF9EF369E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535F5CA6-F5F5-4435-B30A-BC61715B4137}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -638,43 +638,47 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>983</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>983</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -683,48 +687,52 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>983</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>983</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -734,39 +742,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -779,44 +787,44 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -826,39 +834,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -871,90 +879,86 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -963,47 +967,43 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1018,39 +1018,39 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1063,39 +1063,39 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1110,39 +1110,39 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1155,39 +1155,39 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1202,39 +1202,39 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,39 +1247,39 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,39 +1294,39 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,39 +1339,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1388,26 +1388,26 @@
         <v>983</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -1416,13 +1416,13 @@
         <v>983</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,26 +1437,26 @@
         <v>983</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -1465,13 +1465,13 @@
         <v>983</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44C358E-6040-4EE8-9434-18C1488D0DD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBA8F49-84CB-4F40-A2EB-AD5A8015231F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1622,39 +1622,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,44 +1667,44 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -1714,39 +1714,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1759,44 +1759,44 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1806,39 +1806,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,44 +1851,44 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1898,39 +1898,39 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,39 +1943,39 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,39 +1990,39 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,26 +2084,26 @@
         <v>961</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2112,13 +2112,13 @@
         <v>961</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,26 +2133,26 @@
         <v>961</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -2161,13 +2161,13 @@
         <v>961</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,39 +2182,39 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,39 +2274,39 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,39 +2319,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,26 +2368,26 @@
         <v>961</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2396,13 +2396,13 @@
         <v>961</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,26 +2417,26 @@
         <v>961</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2445,13 +2445,13 @@
         <v>961</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
